--- a/results/140418-W06-1405-2014-Paganello-Mixed.xlsx
+++ b/results/140418-W06-1405-2014-Paganello-Mixed.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0baef4825c0f17ed/Dokumente/Frisbee/Rankings/Turniere-berechnet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF478AA5-AD48-4A11-AC23-C89335F6828E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W05 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'W05 (2)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'W05 (2)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,14 +28,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="2" shapeId="0">
+    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="2" shapeId="0">
+    <comment ref="S17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -511,9 +512,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>18.-20.4.2014</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -533,12 +531,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>18.4.2014-20.4.2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,10 +1398,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1436,10 +1433,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1475,10 +1468,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1526,18 +1515,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1601,18 +1578,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1673,142 +1638,178 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2093,17 +2094,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle11">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2132,69 +2133,69 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="122" t="s">
+      <c r="B2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="120"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="88"/>
+      <c r="T2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="101" t="s">
+      <c r="B3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="118"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="88" t="s">
-        <v>47</v>
+      <c r="T3" s="79" t="s">
+        <v>46</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="117" t="s">
+      <c r="B4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="110"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="88">
+      <c r="T4" s="79">
         <v>0</v>
       </c>
       <c r="U4" s="4">
@@ -2202,72 +2203,72 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="101" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="88"/>
+      <c r="T5" s="79"/>
     </row>
     <row r="6" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="116">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="101">
         <v>6</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="114"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="113">
+      <c r="U6" s="87">
         <v>3</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="111">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="104">
         <v>1.2</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="88" t="s">
+      <c r="T7" s="79" t="s">
         <v>38</v>
       </c>
       <c r="U7" s="4">
@@ -2275,204 +2276,204 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="107" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="110"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="88" t="s">
+      <c r="T8" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="99"/>
+      <c r="M9" s="100"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="106"/>
       <c r="K10" s="106"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="104"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="88"/>
+      <c r="T10" s="79"/>
     </row>
     <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="101">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="93">
         <v>1405</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="88"/>
+      <c r="T11" s="79"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="96">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="108">
         <v>1605</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="94"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="88"/>
+      <c r="T12" s="79"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="89"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="115"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="88"/>
+      <c r="T13" s="79"/>
     </row>
     <row r="14" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87" t="s">
+    <row r="15" spans="1:27" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="86" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="47"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="44"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="118"/>
       <c r="T15" s="5">
         <v>3</v>
       </c>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="AA15" s="78"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="AA15" s="69"/>
     </row>
     <row r="16" spans="1:27" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="75" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="74" t="s">
+      <c r="K16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="72" t="s">
+      <c r="Q16" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="71"/>
-      <c r="S16" s="70"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="121"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="80" t="s">
+      <c r="U16" s="71" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2482,27 +2483,27 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="41"/>
-      <c r="Q17" s="64" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="38"/>
+      <c r="Q17" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="63" t="s">
+      <c r="R17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="62" t="s">
+      <c r="S17" s="56" t="s">
         <v>1</v>
       </c>
       <c r="T17" s="5"/>
@@ -2513,50 +2514,50 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37">
+      <c r="B18" s="122">
         <v>1</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>1</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>1</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="31">
         <v>133</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>0.5</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="61">
+      <c r="J18" s="55">
         <v>150</v>
       </c>
-      <c r="K18" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="29">
+      <c r="K18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="27">
         <v>7</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>157</v>
       </c>
-      <c r="Q18" s="40" t="s">
+      <c r="Q18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="36">
         <v>7</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="35">
         <v>150</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -2572,48 +2573,48 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="26">
+      <c r="B19" s="123"/>
+      <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>1</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>7</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <v>7.5</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="60">
+      <c r="J19" s="54">
         <v>150</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
+      <c r="K19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
         <v>7</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <v>157</v>
       </c>
-      <c r="Q19" s="83" t="s">
+      <c r="Q19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="82">
+      <c r="R19" s="73">
         <v>7</v>
       </c>
-      <c r="S19" s="81" t="s">
+      <c r="S19" s="72" t="s">
         <v>0</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -2629,7 +2630,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -2662,13 +2663,13 @@
       <c r="N20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="38" t="s">
+      <c r="Q20" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -2684,50 +2685,50 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37">
+      <c r="B21" s="122">
         <v>2</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>2</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>2</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="31">
         <v>57</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>1</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="61">
+      <c r="J21" s="55">
         <v>120</v>
       </c>
-      <c r="K21" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="29">
+      <c r="K21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="27">
         <v>1</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="26">
         <v>121</v>
       </c>
-      <c r="Q21" s="83" t="s">
+      <c r="Q21" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="82">
+      <c r="R21" s="73">
         <v>1</v>
       </c>
-      <c r="S21" s="81">
+      <c r="S21" s="72">
         <v>120</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -2743,48 +2744,48 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="26">
+      <c r="B22" s="123"/>
+      <c r="C22" s="25">
         <v>2</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>2</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>18</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>5</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="60">
+      <c r="J22" s="54">
         <v>120</v>
       </c>
-      <c r="K22" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="19">
+      <c r="K22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
         <v>1</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <v>121</v>
       </c>
-      <c r="Q22" s="40" t="s">
+      <c r="Q22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="39">
+      <c r="R22" s="36">
         <v>1</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -2800,7 +2801,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="16">
         <v>2</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2833,13 +2834,13 @@
       <c r="N23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q23" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="81" t="s">
+      <c r="Q23" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="72" t="s">
         <v>0</v>
       </c>
       <c r="T23" s="5" t="s">
@@ -2855,50 +2856,50 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37">
+      <c r="B24" s="122">
         <v>3</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <v>3</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>3</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32" t="s">
+      <c r="G24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="61">
+      <c r="J24" s="55">
         <v>96</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="29">
-        <v>0</v>
-      </c>
-      <c r="N24" s="28">
+      <c r="K24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
         <v>96</v>
       </c>
-      <c r="Q24" s="40" t="s">
+      <c r="Q24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="39">
-        <v>0</v>
-      </c>
-      <c r="S24" s="38">
+      <c r="R24" s="36">
+        <v>0</v>
+      </c>
+      <c r="S24" s="35">
         <v>96</v>
       </c>
       <c r="T24" s="5" t="s">
@@ -2914,48 +2915,48 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="26">
+      <c r="B25" s="123"/>
+      <c r="C25" s="25">
         <v>3</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>3</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>87</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>1</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="60">
+      <c r="J25" s="54">
         <v>96</v>
       </c>
-      <c r="K25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18">
+      <c r="K25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
         <v>96</v>
       </c>
-      <c r="Q25" s="83" t="s">
+      <c r="Q25" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="82">
-        <v>0</v>
-      </c>
-      <c r="S25" s="81" t="s">
+      <c r="R25" s="73">
+        <v>0</v>
+      </c>
+      <c r="S25" s="72" t="s">
         <v>0</v>
       </c>
       <c r="T25" s="5" t="s">
@@ -2971,7 +2972,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="16">
         <v>3</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -3004,13 +3005,13 @@
       <c r="N26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q26" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="38" t="s">
+      <c r="Q26" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T26" s="5" t="s">
@@ -3027,27 +3028,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:M13"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S26">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -3055,31 +3056,31 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E26">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E26" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
